--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27362698806263869</v>
+        <v>0.27351930273188851</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28454045130774069</v>
+        <v>0.28444073537437942</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0048041048156851479</v>
+        <v>-0.0047765030929491949</v>
       </c>
       <c r="E3" s="0">
-        <v>-1.9508546126572147e-05</v>
+        <v>-2.2366638060894653e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0008906614229976244</v>
+        <v>-0.00086307800864457679</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00050113902090704883</v>
+        <v>0.00050256494321383109</v>
       </c>
       <c r="H3" s="0">
-        <v>-8.7767872396594027e-05</v>
+        <v>-8.6861093565127062e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00037743435691616064</v>
+        <v>-0.00037697103016303985</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00038049622438535158</v>
+        <v>0.00038049635143910798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29002642869886419</v>
+        <v>0.28996684970470421</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0017657893386970656</v>
+        <v>-0.0021129358668152995</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00010216469999899993</v>
+        <v>0.00010172593574537484</v>
       </c>
       <c r="F4" s="0">
-        <v>3.8274188964102232e-05</v>
+        <v>3.8058333471570101e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014900671626116274</v>
+        <v>0.00014879241856965002</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0020809197507774191</v>
+        <v>-0.0020743513521273012</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00036665554321750615</v>
+        <v>0.0003644377745011865</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00071843133023785644</v>
+        <v>-0.00071843744835525802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29858603610232992</v>
+        <v>0.299060068643693</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0074828158634738179</v>
+        <v>0.007964037755112818</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0064787584049572607</v>
+        <v>-0.0064984566842115265</v>
       </c>
       <c r="E5" s="0">
-        <v>-4.2389811695526206e-05</v>
+        <v>-3.796853747437684e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00025712530612992759</v>
+        <v>0.00024755226233175604</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0018477563379021194</v>
+        <v>-0.0018457040522018122</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.2629937950185372e-05</v>
+        <v>-1.2832643558188193e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00046036622405058335</v>
+        <v>-0.00045963658644573245</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00038762049344270855</v>
+        <v>-0.00038762372176409654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.27050407078983074</v>
+        <v>0.27022139761345459</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027670513645659738</v>
+        <v>0.027563494193474362</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-5.5285248069775391e-05</v>
+        <v>-5.5388575578133195e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.1011684410335999e-05</v>
+        <v>-4.0546798747904394e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.7719323468189644e-05</v>
+        <v>-7.8462940254440952e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0021626396694387666</v>
+        <v>-0.0021853775585362989</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0056317265526289462</v>
+        <v>-0.0056317246754117312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27297242227120005</v>
+        <v>0.27268996802050283</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.001887277955698919</v>
+        <v>-0.0019327526525750498</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00050545198400075324</v>
+        <v>-0.00049470352567263464</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0043525801217103154</v>
+        <v>-0.0043542317416250106</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0011745015771628298</v>
+        <v>0.0011765732653634632</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00020138524812157485</v>
+        <v>0.00020069058282418058</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0028659145511257811</v>
+        <v>-0.002865914671817571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.22353159903914996</v>
+        <v>0.22424356074574131</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.055777778192526585</v>
+        <v>-0.055470458870007761</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>4.6562711691378003e-05</v>
+        <v>4.705853184741944e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00033077668210292581</v>
+        <v>-0.000330622086587592</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.05048465855081e-05</v>
+        <v>5.0595149845919418e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0010509246016847664</v>
+        <v>0.0010645514170592124</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0013660831558449105</v>
+        <v>0.0013660585610660303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.22252160468900109</v>
+        <v>0.22316091962422624</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0033654365303567428</v>
+        <v>0.0034005878414023398</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0034045339189843495</v>
+        <v>-0.0034159986345844427</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.004646883484423288</v>
+        <v>-0.0046592461356807077</v>
       </c>
       <c r="G9" s="0">
-        <v>0.001325477982743393</v>
+        <v>0.0013182784748924112</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015412629250759088</v>
+        <v>-0.00015316240076762713</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00033752281788940674</v>
+        <v>-0.00033661001488424503</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00038561273532369822</v>
+        <v>0.00038561352208421606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.32593219562944464</v>
+        <v>0.32640465089051013</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094379734376301844</v>
+        <v>0.094472038775978887</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00013715821864554811</v>
+        <v>-0.00013839053838774564</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00033820774093458965</v>
+        <v>-0.00033760059782013413</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-3.3706085083008732e-05</v>
+        <v>-3.3708219174563633e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0001671295058375815</v>
+        <v>0.00017031136912818999</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002388595335392478</v>
+        <v>-0.002388063556425647</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0052674939550875488</v>
+        <v>0.0052674881290792896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34616051423330402</v>
+        <v>0.34633560451125067</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.021919113144630135</v>
+        <v>-0.021887310202788182</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0020855743072083228</v>
+        <v>0.0020893345544954326</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0038333849035579737</v>
+        <v>0.0038168772235914984</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0020742892245958905</v>
+        <v>0.0020803197755100704</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00035954357956783598</v>
+        <v>0.00035837715964849218</v>
       </c>
       <c r="I11" s="0">
-        <v>1.8313345598687525e-05</v>
+        <v>8.8567970849626954e-07</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0090320518356360457</v>
+        <v>0.0090320524408768477</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.20907350584454676</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.061670701625824227</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-5.222843404196606e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.5218656394709551e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>8.2872376734734251e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0014290518672653819</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.013595073924139611</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27351930273188851</v>
+        <v>0.27317604043086441</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28444073537437942</v>
+        <v>0.28412781460517061</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0047765030929491949</v>
+        <v>-0.0048389031777743945</v>
       </c>
       <c r="E3" s="0">
-        <v>-2.2366638060894653e-05</v>
+        <v>-2.0977333187476594e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00086307800864457679</v>
+        <v>-0.00088394354711545319</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00050256494321383109</v>
+        <v>0.00050516421354772746</v>
       </c>
       <c r="H3" s="0">
-        <v>-8.6861093565127062e-05</v>
+        <v>-8.7624836483603466e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00037697103016303985</v>
+        <v>-0.00037806130606442891</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00038049635143910798</v>
+        <v>0.0003804956847288099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28996684970470421</v>
+        <v>0.29102772627665163</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0021129358668152995</v>
+        <v>-0.0018551905637967626</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00010172593574537484</v>
+        <v>0.00010172546858432638</v>
       </c>
       <c r="F4" s="0">
-        <v>3.8058333471570101e-05</v>
+        <v>3.6369484608691463e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014879241856965002</v>
+        <v>0.00014730203324280215</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0020743513521273012</v>
+        <v>-0.0020601997075970599</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0003644377745011865</v>
+        <v>0.00036190441070897629</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00071843744835525802</v>
+        <v>-0.00071846977487738384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.299060068643693</v>
+        <v>0.29915047334872258</v>
       </c>
       <c r="C5" s="0">
-        <v>0.007964037755112818</v>
+        <v>0.0074294819345867629</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0064984566842115265</v>
+        <v>-0.0064853117863217383</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.796853747437684e-05</v>
+        <v>-4.6128247842343622e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00024755226233175604</v>
+        <v>0.00023334369140784724</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0018457040522018122</v>
+        <v>-0.001848625627487349</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.2832643558188193e-05</v>
+        <v>-1.3290974247956645e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00045963658644573245</v>
+        <v>-0.0004582176639909117</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00038762372176409654</v>
+        <v>-0.00038761906744388952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.27022139761345459</v>
+        <v>0.2701538160162737</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027563494193474362</v>
+        <v>0.028028965873921785</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-5.5388575578133195e-05</v>
+        <v>-5.5064691868198739e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.0546798747904394e-05</v>
+        <v>-3.9723169671108034e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.8462940254440952e-05</v>
+        <v>-7.8923344464257495e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0021853775585362989</v>
+        <v>-0.0021955179294601296</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0056317246754117312</v>
+        <v>-0.0056317224857534431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27268996802050283</v>
+        <v>0.27254085310431381</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0019327526525750498</v>
+        <v>-0.0019554868325869792</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00049470352567263464</v>
+        <v>-0.00047674514656356135</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0043542317416250106</v>
+        <v>-0.004330358723045818</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0011765732653634632</v>
+        <v>0.0011805229763258715</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00020069058282418058</v>
+        <v>0.00019980967966282576</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.002865914671817571</v>
+        <v>-0.0028659135937080249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.22424356074574131</v>
+        <v>0.22323283774946442</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.055470458870007761</v>
+        <v>-0.056215766626765078</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>4.705853184741944e-05</v>
+        <v>4.8512003481447124e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.000330622086587592</v>
+        <v>-0.00033046101318575077</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.0595149845919418e-05</v>
+        <v>5.0587829979240767e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0010645514170592124</v>
+        <v>0.0010819544922349563</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0013660585610660303</v>
+        <v>0.0013660705578832921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.22316091962422624</v>
+        <v>0.2222637890823726</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0034005878414023398</v>
+        <v>0.003345133280921367</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0034159986345844427</v>
+        <v>-0.0034287065582705779</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0046592461356807077</v>
+        <v>-0.0046711570783730333</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0013182784748924112</v>
+        <v>0.0013298561326200425</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015316240076762713</v>
+        <v>-0.0001521919597738558</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00033661001488424503</v>
+        <v>-0.00033610536648388432</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00038561352208421606</v>
+        <v>0.00038561180237489667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.32640465089051013</v>
+        <v>0.32623495429797039</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094472038775978887</v>
+        <v>0.09502028383949257</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00013839053838774564</v>
+        <v>-0.00013514629374838477</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00033760059782013413</v>
+        <v>-0.00034280017266344836</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-3.3708219174563633e-05</v>
+        <v>-3.3846444234047145e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00017031136912818999</v>
+        <v>0.00017222198587854502</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002388063556425647</v>
+        <v>-0.0023410159723981925</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0052674881290792896</v>
+        <v>0.0052674895687432888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34633560451125067</v>
+        <v>0.34655892805266747</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.021887310202788182</v>
+        <v>-0.022200578379778468</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0020893345544954326</v>
+        <v>0.0020945784313169996</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0038168772235914984</v>
+        <v>0.0037154657476056413</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0020803197755100704</v>
+        <v>0.0020946633696312801</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00035837715964849218</v>
+        <v>0.00035560096412490705</v>
       </c>
       <c r="I11" s="0">
-        <v>8.8567970849626954e-07</v>
+        <v>1.6279726651723681e-05</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0090320524408768477</v>
+        <v>0.0090320518193906518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.20907350584454676</v>
+        <v>0.29985528816733614</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.061670701625824227</v>
+        <v>-0.068925799208574556</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-5.222843404196606e-05</v>
+        <v>4.7188894805645577e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>1.5218656394709551e-05</v>
+        <v>0.0032712606339760767</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>8.2872376734734251e-06</v>
+        <v>0.0015576705605984164</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0014290518672653819</v>
+        <v>0.0097536372834598466</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.013595073924139611</v>
+        <v>-0.013850357961256887</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.20438551149295142</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.052976792704105574</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0002621932917246951</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.016193504113902323</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0007937506044054239</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00050964108759576964</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00032916522575674703</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.0097824491743193631</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.14571993099140648</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.11441754773267952</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.00024830987785658983</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.000504476705892892</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00029060692433829742</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.024912878604102826</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>2.4978162920852309e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.27317604043086441</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.28412781460517061</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29102772627665163</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29915047334872258</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.2701538160162737</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.27254085310431381</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.22323283774946442</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.2222637890823726</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.32623495429797039</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.34655892805266747</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.29985528816733614</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.20438551149295142</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.14571993099140648</v>
+        <v>0.20675639807232443</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.11441754773267952</v>
+        <v>-0.093187152822252123</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00024830987785658983</v>
+        <v>0.00013421700932594264</v>
       </c>
       <c r="F14" s="0">
-        <v>0.000504476705892892</v>
+        <v>0.00013642583695240164</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00029060692433829742</v>
+        <v>-0.0014343352149617803</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.024912878604102826</v>
+        <v>-0.00040556625914875031</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>2.4978162920852309e-05</v>
+        <v>-0.0042559117895664134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.024446408233743</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.090935885274514031</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0004099036936334541</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0022584770023093177</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0082928836233130219</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0031814153493129882</v>
       </c>
     </row>
   </sheetData>
